--- a/biology/Zoologie/Calidris/Calidris.xlsx
+++ b/biology/Zoologie/Calidris/Calidris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Calidris est un genre d'oiseaux appelés bécasseaux, de taille petite à moyenne, aux ailes longues et au bec relativement court.
-Leurs becs ont des pointes sensibles qui contiennent de nombreux corpuscules de Herbst (en). Cela permet aux oiseaux de localiser des proies enfouies, qu'ils recherchent généralement en courant et en sondant sans relâche[1].
+Leurs becs ont des pointes sensibles qui contiennent de nombreux corpuscules de Herbst (en). Cela permet aux oiseaux de localiser des proies enfouies, qu'ils recherchent généralement en courant et en sondant sans relâche.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>D'après la classification de référence (version 12.2, 2022) du Congrès ornithologique international (ordre phylogénique) :
 Calidris tenuirostris – Bécasseau de l'Anadyr
@@ -566,7 +580,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>del Hoyo J., Elliott A. &amp; Sargatal J. (1996) Handbook of the Birds of the World, Volume 3, Hoatzin to Auks. BirdLife International, Lynx Edicions, Barcelona, 821 p.
 Taylor D. (2006) Guide des limicoles d'Europe, d'Asie et d'Amérique du Nord. Delachaux &amp; Niestlé, Paris, 224 p.</t>
